--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>空间引擎名</t>
   </si>
@@ -43,7 +43,7 @@
     <t>FOFA</t>
   </si>
   <si>
-    <t>120.79.66.172:80</t>
+    <t>http://120.79.66.172:80</t>
   </si>
   <si>
     <t>120.79.66.172</t>
@@ -55,172 +55,655 @@
     <t>Apache</t>
   </si>
   <si>
-    <t>aXA9IjEyMC43OS42Ni41OC8yNCI%3D</t>
-  </si>
-  <si>
-    <t>120.79.66.214:80</t>
+    <t>ip="120.79.66.58/24"</t>
+  </si>
+  <si>
+    <t>http://120.79.66.179:80</t>
+  </si>
+  <si>
+    <t>没有找到站点</t>
+  </si>
+  <si>
+    <t>120.79.66.179</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>http://120.79.66.240:4369</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>120.79.66.240</t>
+  </si>
+  <si>
+    <t>4369</t>
+  </si>
+  <si>
+    <t>http://120.79.66.249:80</t>
+  </si>
+  <si>
+    <t>403 Forbidden</t>
+  </si>
+  <si>
+    <t>120.79.66.249</t>
+  </si>
+  <si>
+    <t>http://120.79.66.187:80</t>
+  </si>
+  <si>
+    <t>网站访问报错</t>
+  </si>
+  <si>
+    <t>120.79.66.187</t>
+  </si>
+  <si>
+    <t>Microsoft-IIS/7.5</t>
+  </si>
+  <si>
+    <t>http://120.79.66.177:80</t>
+  </si>
+  <si>
+    <t>500 Internal Server Error</t>
+  </si>
+  <si>
+    <t>120.79.66.177</t>
+  </si>
+  <si>
+    <t>nginx/1.10.3</t>
+  </si>
+  <si>
+    <t>http://120.79.66.174:80</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>120.79.66.174</t>
+  </si>
+  <si>
+    <t>Apache/2.4.7 (Ubuntu)</t>
+  </si>
+  <si>
+    <t>http://120.79.66.147:7080</t>
+  </si>
+  <si>
+    <t>120.79.66.147</t>
+  </si>
+  <si>
+    <t>7080</t>
+  </si>
+  <si>
+    <t>http://120.79.66.151:80</t>
+  </si>
+  <si>
+    <t>子魚工具箱</t>
+  </si>
+  <si>
+    <t>120.79.66.151</t>
+  </si>
+  <si>
+    <t>nginx/1.16.1</t>
+  </si>
+  <si>
+    <t>http://120.79.66.233:80</t>
+  </si>
+  <si>
+    <t>登记成功</t>
+  </si>
+  <si>
+    <t>120.79.66.233</t>
+  </si>
+  <si>
+    <t>nginx/1.14.0 (Ubuntu)</t>
+  </si>
+  <si>
+    <t>http://120.79.66.161:80</t>
+  </si>
+  <si>
+    <t>120.79.66.161</t>
+  </si>
+  <si>
+    <t>Tengine</t>
+  </si>
+  <si>
+    <t>http://bb.cdrxjr.com</t>
+  </si>
+  <si>
+    <t>120.79.66.124</t>
+  </si>
+  <si>
+    <t>nginx/1.18.0</t>
+  </si>
+  <si>
+    <t>http://120.79.66.170:80</t>
+  </si>
+  <si>
+    <t>120.79.66.170</t>
+  </si>
+  <si>
+    <t>nginx/1.14.2</t>
+  </si>
+  <si>
+    <t>http://120.79.66.166:80</t>
+  </si>
+  <si>
+    <t>Welcome to nginx!</t>
+  </si>
+  <si>
+    <t>120.79.66.166</t>
+  </si>
+  <si>
+    <t>http://120.79.66.229:80</t>
+  </si>
+  <si>
+    <t>120.79.66.229</t>
+  </si>
+  <si>
+    <t>nginx/1.13.9</t>
+  </si>
+  <si>
+    <t>http://120.79.66.208:80</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>120.79.66.208</t>
+  </si>
+  <si>
+    <t>Apache/2.4.23 (Win32) OpenSSL/1.0.2j mod_fcgid/2.3.9</t>
+  </si>
+  <si>
+    <t>http://www.zc-anfang.com</t>
+  </si>
+  <si>
+    <t>深圳市振传科技有限公司_深圳通道闸|人行通道闸|工地实名制|摆闸|翼闸|三辊闸|通道闸厂家</t>
+  </si>
+  <si>
+    <t>120.79.66.216</t>
+  </si>
+  <si>
+    <t>http://120.79.66.169:80</t>
+  </si>
+  <si>
+    <t>120.79.66.169</t>
+  </si>
+  <si>
+    <t>http://applets.guangzu.net</t>
+  </si>
+  <si>
+    <t>120.79.66.83</t>
+  </si>
+  <si>
+    <t>http://120.79.66.184:80</t>
+  </si>
+  <si>
+    <t>个人show</t>
+  </si>
+  <si>
+    <t>120.79.66.184</t>
+  </si>
+  <si>
+    <t>nginx/1.13.7</t>
+  </si>
+  <si>
+    <t>http://120.79.66.194:80</t>
+  </si>
+  <si>
+    <t>120.79.66.194</t>
+  </si>
+  <si>
+    <t>openresty</t>
+  </si>
+  <si>
+    <t>http://120.79.66.49:8069</t>
+  </si>
+  <si>
+    <t>LiriverAtmAngular</t>
+  </si>
+  <si>
+    <t>120.79.66.49</t>
+  </si>
+  <si>
+    <t>8069</t>
+  </si>
+  <si>
+    <t>Microsoft-IIS/8.5</t>
+  </si>
+  <si>
+    <t>http://120.79.66.225:80</t>
+  </si>
+  <si>
+    <t>120.79.66.225</t>
+  </si>
+  <si>
+    <t>http://120.79.66.250:80</t>
+  </si>
+  <si>
+    <t>120.79.66.250</t>
+  </si>
+  <si>
+    <t>http://120.79.66.168:80</t>
+  </si>
+  <si>
+    <t>App 下载 | 众捷科技</t>
+  </si>
+  <si>
+    <t>120.79.66.168</t>
+  </si>
+  <si>
+    <t>Apache-Coyote/1.1</t>
+  </si>
+  <si>
+    <t>http://120.79.66.220:80</t>
+  </si>
+  <si>
+    <t>恭喜，站点创建成功！</t>
+  </si>
+  <si>
+    <t>120.79.66.220</t>
+  </si>
+  <si>
+    <t>http://120.79.66.131:3690</t>
+  </si>
+  <si>
+    <t>120.79.66.131</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>http://120.79.66.165:1099</t>
+  </si>
+  <si>
+    <t>120.79.66.165</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>lighttpd/1.4.33</t>
+  </si>
+  <si>
+    <t>JavaRMI</t>
+  </si>
+  <si>
+    <t>http://www.youlinyun.cn</t>
+  </si>
+  <si>
+    <t>三易科技--地产物业、智慧园区、展览会务行业一站式解决方案专家</t>
+  </si>
+  <si>
+    <t>120.79.66.66</t>
+  </si>
+  <si>
+    <t>http://m.guangzu.net:89</t>
+  </si>
+  <si>
+    <t>广租_电脑租赁_租电脑_大广商城_专业的IT一站式解决方案服务商</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>http://www.3-e.cn</t>
+  </si>
+  <si>
+    <t>http://120.79.66.147:80</t>
+  </si>
+  <si>
+    <t>http://120.79.66.27:8080</t>
+  </si>
+  <si>
+    <t>120.79.66.27</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>http://3-e.cn</t>
+  </si>
+  <si>
+    <t>http://120.79.66.192:8161</t>
+  </si>
+  <si>
+    <t>Error 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>120.79.66.192</t>
+  </si>
+  <si>
+    <t>8161</t>
+  </si>
+  <si>
+    <t>Jetty(7.6.1.v20120215)</t>
+  </si>
+  <si>
+    <t>http://app.znec-tech.top</t>
+  </si>
+  <si>
+    <t>http://120.79.66.43:8080</t>
+  </si>
+  <si>
+    <t>120.79.66.43</t>
+  </si>
+  <si>
+    <t>http://120.79.66.168:9090</t>
+  </si>
+  <si>
+    <t>9090</t>
+  </si>
+  <si>
+    <t>http://winland.com.cn</t>
+  </si>
+  <si>
+    <t>润农科技</t>
+  </si>
+  <si>
+    <t>120.79.66.96</t>
+  </si>
+  <si>
+    <t>nginx/1.12.2</t>
+  </si>
+  <si>
+    <t>http://120.79.66.253:8090</t>
+  </si>
+  <si>
+    <t>惠龙邦-首页</t>
+  </si>
+  <si>
+    <t>120.79.66.253</t>
+  </si>
+  <si>
+    <t>8090</t>
+  </si>
+  <si>
+    <t>http://120.79.66.241:80</t>
+  </si>
+  <si>
+    <t>HiPacking Logistics</t>
+  </si>
+  <si>
+    <t>120.79.66.241</t>
+  </si>
+  <si>
+    <t>http://120.79.66.209</t>
+  </si>
+  <si>
+    <t>欢迎使用浙大恩特客户资源管理系统</t>
+  </si>
+  <si>
+    <t>120.79.66.209</t>
+  </si>
+  <si>
+    <t>http://120.79.66.209:80</t>
+  </si>
+  <si>
+    <t>http://120.79.66.43:3307</t>
+  </si>
+  <si>
+    <t>3307</t>
+  </si>
+  <si>
+    <t>http://120.79.66.115:8888</t>
+  </si>
+  <si>
+    <t>120.79.66.115</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>http://120.79.66.97:3690</t>
+  </si>
+  <si>
+    <t>120.79.66.97</t>
+  </si>
+  <si>
+    <t>http://120.79.66.234:5031</t>
+  </si>
+  <si>
+    <t>集约派送系统接口说明文档 | 集约派送系统接口文档</t>
+  </si>
+  <si>
+    <t>120.79.66.234</t>
+  </si>
+  <si>
+    <t>5031</t>
+  </si>
+  <si>
+    <t>http://www.jqbxzq.com</t>
+  </si>
+  <si>
+    <t>广东金桥百信（肇庆）律师事务所</t>
+  </si>
+  <si>
+    <t>120.79.66.77</t>
+  </si>
+  <si>
+    <t>http://120.79.66.185:6000</t>
+  </si>
+  <si>
+    <t>BwRegSrv</t>
+  </si>
+  <si>
+    <t>120.79.66.185</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Indy/9.0.50</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:83</t>
+  </si>
+  <si>
+    <t>抱歉，站点已暂停</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:8888</t>
+  </si>
+  <si>
+    <t>拒绝访问</t>
+  </si>
+  <si>
+    <t>http://120.79.66.138:1433</t>
+  </si>
+  <si>
+    <t>120.79.66.138</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>http://ddns.getgeekfun.cn</t>
   </si>
   <si>
     <t>Not Found</t>
   </si>
   <si>
-    <t>120.79.66.214</t>
+    <t>120.79.66.18</t>
+  </si>
+  <si>
+    <t>nginx/1.19.0</t>
+  </si>
+  <si>
+    <t>https://120.79.66.83</t>
+  </si>
+  <si>
+    <t>HTTP Status 404 – 未找到</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:3306</t>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>http://120.79.66.74:3306</t>
+  </si>
+  <si>
+    <t>120.79.66.74</t>
+  </si>
+  <si>
+    <t>http://120.79.66.170:888</t>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>http://120.79.66.138:8086</t>
+  </si>
+  <si>
+    <t>120.79.66.138 - /</t>
+  </si>
+  <si>
+    <t>8086</t>
+  </si>
+  <si>
+    <t>http://120.79.66.49:8086</t>
+  </si>
+  <si>
+    <t>nginx/1.11.3</t>
+  </si>
+  <si>
+    <t>http://jdmy.ddns.getgeekfun.cn</t>
+  </si>
+  <si>
+    <t>http://120.79.66.115:8081</t>
+  </si>
+  <si>
+    <t>天天生鲜-首页</t>
+  </si>
+  <si>
+    <t>8081</t>
+  </si>
+  <si>
+    <t>http://120.79.66.241:9090</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
   </si>
   <si>
     <t>Microsoft-HTTPAPI/2.0</t>
   </si>
   <si>
-    <t>120.79.66.179:80</t>
-  </si>
-  <si>
-    <t>没有找到站点</t>
-  </si>
-  <si>
-    <t>120.79.66.179</t>
-  </si>
-  <si>
-    <t>nginx</t>
-  </si>
-  <si>
-    <t>120.79.66.249:80</t>
-  </si>
-  <si>
-    <t>403 Forbidden</t>
-  </si>
-  <si>
-    <t>120.79.66.249</t>
-  </si>
-  <si>
-    <t>120.79.66.174:80</t>
-  </si>
-  <si>
-    <t>Laravel</t>
-  </si>
-  <si>
-    <t>120.79.66.174</t>
-  </si>
-  <si>
-    <t>Apache/2.4.7 (Ubuntu)</t>
-  </si>
-  <si>
-    <t>120.79.66.241:80</t>
-  </si>
-  <si>
-    <t>HiPacking Logistics</t>
-  </si>
-  <si>
-    <t>120.79.66.241</t>
-  </si>
-  <si>
-    <t>Microsoft-IIS/8.5</t>
-  </si>
-  <si>
-    <t>120.79.66.151:80</t>
-  </si>
-  <si>
-    <t>子魚工具箱</t>
-  </si>
-  <si>
-    <t>120.79.66.151</t>
-  </si>
-  <si>
-    <t>nginx/1.16.1</t>
-  </si>
-  <si>
-    <t>120.79.66.187:80</t>
-  </si>
-  <si>
-    <t>网站访问报错</t>
-  </si>
-  <si>
-    <t>120.79.66.187</t>
-  </si>
-  <si>
-    <t>Microsoft-IIS/7.5</t>
-  </si>
-  <si>
-    <t>120.79.66.177:80</t>
-  </si>
-  <si>
-    <t>500 Internal Server Error</t>
-  </si>
-  <si>
-    <t>120.79.66.177</t>
-  </si>
-  <si>
-    <t>nginx/1.10.3</t>
-  </si>
-  <si>
-    <t>120.79.66.208:80</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>120.79.66.208</t>
-  </si>
-  <si>
-    <t>Apache/2.4.23 (Win32) OpenSSL/1.0.2j mod_fcgid/2.3.9</t>
-  </si>
-  <si>
-    <t>120.79.66.169:80</t>
-  </si>
-  <si>
-    <t>120.79.66.169</t>
-  </si>
-  <si>
-    <t>120.79.66.168:80</t>
-  </si>
-  <si>
-    <t>App 下载 | 众捷科技</t>
-  </si>
-  <si>
-    <t>120.79.66.168</t>
-  </si>
-  <si>
-    <t>Apache-Coyote/1.1</t>
-  </si>
-  <si>
-    <t>120.79.66.170:80</t>
-  </si>
-  <si>
-    <t>120.79.66.170</t>
-  </si>
-  <si>
-    <t>nginx/1.14.2</t>
-  </si>
-  <si>
-    <t>120.79.66.229:80</t>
-  </si>
-  <si>
-    <t>120.79.66.229</t>
-  </si>
-  <si>
-    <t>nginx/1.13.9</t>
-  </si>
-  <si>
-    <t>120.79.66.49:8069</t>
-  </si>
-  <si>
-    <t>LiriverAtmAngular</t>
-  </si>
-  <si>
-    <t>120.79.66.49</t>
-  </si>
-  <si>
-    <t>8069</t>
-  </si>
-  <si>
-    <t>120.79.66.192:80</t>
+    <t>http://120.79.66.70:8888</t>
+  </si>
+  <si>
+    <t>安全入口校验失败</t>
+  </si>
+  <si>
+    <t>120.79.66.70</t>
+  </si>
+  <si>
+    <t>http://120.79.66.135:8888</t>
+  </si>
+  <si>
+    <t>120.79.66.135</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>http://120.79.66.237:8888</t>
+  </si>
+  <si>
+    <t>120.79.66.237</t>
+  </si>
+  <si>
+    <t>http://120.79.66.16:8888</t>
+  </si>
+  <si>
+    <t>120.79.66.16</t>
+  </si>
+  <si>
+    <t>https://120.79.66.124:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.124</t>
+  </si>
+  <si>
+    <t>https://120.79.66.56</t>
+  </si>
+  <si>
+    <t>ieas-book</t>
+  </si>
+  <si>
+    <t>120.79.66.56</t>
+  </si>
+  <si>
+    <t>https://120.79.66.66</t>
+  </si>
+  <si>
+    <t>Hello World.</t>
+  </si>
+  <si>
+    <t>https://120.79.66.26</t>
+  </si>
+  <si>
+    <t>新周刊</t>
+  </si>
+  <si>
+    <t>120.79.66.26</t>
+  </si>
+  <si>
+    <t>https://120.79.66.89</t>
+  </si>
+  <si>
+    <t>120.79.66.89</t>
+  </si>
+  <si>
+    <t>https://120.79.66.104</t>
+  </si>
+  <si>
+    <t>城市码头官网</t>
+  </si>
+  <si>
+    <t>120.79.66.104</t>
+  </si>
+  <si>
+    <t>https://120.79.66.168:9090</t>
+  </si>
+  <si>
+    <t>Apache Tomcat/7.0.85 - Error report</t>
+  </si>
+  <si>
+    <t>https://120.79.66.104:443</t>
+  </si>
+  <si>
+    <t>http://120.79.66.192:80</t>
   </si>
   <si>
     <t>502 Bad Gateway</t>
   </si>
   <si>
-    <t>120.79.66.192</t>
-  </si>
-  <si>
-    <t>120.79.66.157:80</t>
+    <t>http://120.79.66.157:80</t>
   </si>
   <si>
     <t>阿里云万网虚机IP访问报错提示</t>
@@ -229,499 +712,319 @@
     <t>120.79.66.157</t>
   </si>
   <si>
-    <t>Tengine</t>
-  </si>
-  <si>
-    <t>120.79.66.161:80</t>
-  </si>
-  <si>
-    <t>120.79.66.161</t>
-  </si>
-  <si>
-    <t>120.79.66.233:80</t>
-  </si>
-  <si>
-    <t>登记成功</t>
-  </si>
-  <si>
-    <t>120.79.66.233</t>
-  </si>
-  <si>
-    <t>nginx/1.14.0 (Ubuntu)</t>
-  </si>
-  <si>
-    <t>120.79.66.225:80</t>
-  </si>
-  <si>
-    <t>120.79.66.225</t>
-  </si>
-  <si>
-    <t>120.79.66.194:80</t>
-  </si>
-  <si>
-    <t>120.79.66.194</t>
-  </si>
-  <si>
-    <t>openresty</t>
-  </si>
-  <si>
-    <t>120.79.66.166:80</t>
-  </si>
-  <si>
-    <t>Welcome to nginx!</t>
-  </si>
-  <si>
-    <t>120.79.66.166</t>
-  </si>
-  <si>
-    <t>120.79.66.250:80</t>
-  </si>
-  <si>
-    <t>120.79.66.250</t>
-  </si>
-  <si>
-    <t>120.79.66.220:80</t>
-  </si>
-  <si>
-    <t>恭喜，站点创建成功！</t>
-  </si>
-  <si>
-    <t>120.79.66.220</t>
-  </si>
-  <si>
-    <t>www.zc-anfang.com</t>
-  </si>
-  <si>
-    <t>深圳市振传科技有限公司_深圳通道闸|人行通道闸|工地实名制|摆闸|翼闸|三辊闸|通道闸厂家</t>
-  </si>
-  <si>
-    <t>120.79.66.216</t>
-  </si>
-  <si>
-    <t>120.79.66.184:80</t>
-  </si>
-  <si>
-    <t>个人show</t>
-  </si>
-  <si>
-    <t>120.79.66.184</t>
-  </si>
-  <si>
-    <t>nginx/1.13.7</t>
-  </si>
-  <si>
-    <t>120.79.66.165:1099</t>
-  </si>
-  <si>
-    <t>120.79.66.165</t>
-  </si>
-  <si>
-    <t>1099</t>
-  </si>
-  <si>
-    <t>lighttpd/1.4.33</t>
-  </si>
-  <si>
-    <t>JavaRMI</t>
-  </si>
-  <si>
-    <t>applets.guangzu.net</t>
-  </si>
-  <si>
-    <t>120.79.66.83</t>
-  </si>
-  <si>
-    <t>m.guangzu.net:89</t>
-  </si>
-  <si>
-    <t>广租_电脑租赁_租电脑_大广商城_专业的IT一站式解决方案服务商</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>https://120.79.66.83</t>
-  </si>
-  <si>
-    <t>HTTP Status 404 – 未找到</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
-  </si>
-  <si>
-    <t>bb.cdrxjr.com</t>
-  </si>
-  <si>
-    <t>120.79.66.124</t>
-  </si>
-  <si>
-    <t>nginx/1.18.0</t>
-  </si>
-  <si>
-    <t>https://120.79.66.124</t>
-  </si>
-  <si>
-    <t>120.79.66.124:443</t>
-  </si>
-  <si>
-    <t>https://120.79.66.26</t>
-  </si>
-  <si>
-    <t>新周刊</t>
-  </si>
-  <si>
-    <t>120.79.66.26</t>
-  </si>
-  <si>
-    <t>120.79.66.113:443</t>
-  </si>
-  <si>
-    <t>400 Bad Request</t>
+    <t>http://120.79.66.241:8888</t>
+  </si>
+  <si>
+    <t>入口校验失败</t>
+  </si>
+  <si>
+    <t>Werkzeug/0.14.1 Python/3.6.6</t>
+  </si>
+  <si>
+    <t>http://www.csmtou.com</t>
+  </si>
+  <si>
+    <t>https://120.79.66.113</t>
+  </si>
+  <si>
+    <t>微擎 - 公众平台自助引擎 -  Powered by WE7.CC</t>
   </si>
   <si>
     <t>120.79.66.113</t>
   </si>
   <si>
-    <t>120.79.66.104:443</t>
-  </si>
-  <si>
-    <t>400 The plain HTTP request was sent to HTTPS port</t>
-  </si>
-  <si>
-    <t>120.79.66.104</t>
-  </si>
-  <si>
-    <t>https://120.79.66.104</t>
-  </si>
-  <si>
-    <t>城市码头官网</t>
-  </si>
-  <si>
-    <t>www.csmtou.com</t>
-  </si>
-  <si>
-    <t>https://120.79.66.56</t>
-  </si>
-  <si>
-    <t>ieas-book</t>
-  </si>
-  <si>
-    <t>120.79.66.56</t>
-  </si>
-  <si>
-    <t>3-e.cn</t>
-  </si>
-  <si>
-    <t>三易科技--地产物业、智慧园区、展览会务行业一站式解决方案专家</t>
-  </si>
-  <si>
-    <t>120.79.66.66</t>
-  </si>
-  <si>
-    <t>www.3-e.cn</t>
-  </si>
-  <si>
-    <t>www.youlinyun.cn</t>
-  </si>
-  <si>
-    <t>winland.com.cn</t>
-  </si>
-  <si>
-    <t>润农科技</t>
-  </si>
-  <si>
-    <t>120.79.66.96</t>
-  </si>
-  <si>
-    <t>nginx/1.12.2</t>
-  </si>
-  <si>
-    <t>https://120.79.66.66</t>
-  </si>
-  <si>
-    <t>Hello World.</t>
-  </si>
-  <si>
-    <t>120.79.66.192:8161</t>
-  </si>
-  <si>
-    <t>Error 401 Unauthorized</t>
-  </si>
-  <si>
-    <t>8161</t>
-  </si>
-  <si>
-    <t>Jetty(7.6.1.v20120215)</t>
-  </si>
-  <si>
-    <t>120.79.66.43:8080</t>
-  </si>
-  <si>
-    <t>120.79.66.43</t>
-  </si>
-  <si>
-    <t>8080</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>https://120.79.66.113</t>
-  </si>
-  <si>
-    <t>微擎 - 公众平台自助引擎 -  Powered by WE7.CC</t>
-  </si>
-  <si>
     <t>https://wx.hzz100.cn</t>
   </si>
   <si>
-    <t>wx.hzz100.cn</t>
-  </si>
-  <si>
-    <t>120.79.66.253:8090</t>
-  </si>
-  <si>
-    <t>惠龙邦-首页</t>
-  </si>
-  <si>
-    <t>120.79.66.253</t>
-  </si>
-  <si>
-    <t>8090</t>
-  </si>
-  <si>
-    <t>120.79.66.241:9090</t>
-  </si>
-  <si>
-    <t>Bad Request</t>
-  </si>
-  <si>
-    <t>9090</t>
-  </si>
-  <si>
-    <t>www.jqbxzq.com</t>
-  </si>
-  <si>
-    <t>广东金桥百信（肇庆）律师事务所</t>
-  </si>
-  <si>
-    <t>120.79.66.77</t>
-  </si>
-  <si>
-    <t>app.znec-tech.top</t>
-  </si>
-  <si>
-    <t>120.79.66.115:8081</t>
-  </si>
-  <si>
-    <t>天天生鲜-首页</t>
-  </si>
-  <si>
-    <t>120.79.66.115</t>
-  </si>
-  <si>
-    <t>8081</t>
-  </si>
-  <si>
-    <t>120.79.66.135:8888</t>
-  </si>
-  <si>
-    <t>404 Not Found</t>
-  </si>
-  <si>
-    <t>120.79.66.135</t>
-  </si>
-  <si>
-    <t>8888</t>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>https://120.79.66.168:9090</t>
-  </si>
-  <si>
-    <t>Apache Tomcat/7.0.85 - Error report</t>
-  </si>
-  <si>
-    <t>120.79.66.115:8888</t>
-  </si>
-  <si>
-    <t>120.79.66.70:8888</t>
-  </si>
-  <si>
-    <t>安全入口校验失败</t>
-  </si>
-  <si>
-    <t>120.79.66.70</t>
-  </si>
-  <si>
-    <t>120.79.66.234:5031</t>
-  </si>
-  <si>
-    <t>集约派送系统接口说明文档 | 集约派送系统接口文档</t>
-  </si>
-  <si>
-    <t>120.79.66.234</t>
-  </si>
-  <si>
-    <t>5031</t>
-  </si>
-  <si>
-    <t>120.79.66.83:8888</t>
-  </si>
-  <si>
-    <t>拒绝访问</t>
-  </si>
-  <si>
-    <t>120.79.66.237:8888</t>
-  </si>
-  <si>
-    <t>120.79.66.237</t>
-  </si>
-  <si>
-    <t>120.79.66.16:8888</t>
-  </si>
-  <si>
-    <t>120.79.66.16</t>
-  </si>
-  <si>
-    <t>120.79.66.83:83</t>
-  </si>
-  <si>
-    <t>抱歉，站点已暂停</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>jdmy.ddns.getgeekfun.cn</t>
-  </si>
-  <si>
-    <t>120.79.66.18</t>
-  </si>
-  <si>
-    <t>nginx/1.19.0</t>
-  </si>
-  <si>
-    <t>ddns.getgeekfun.cn</t>
-  </si>
-  <si>
-    <t>120.79.66.185:6000</t>
-  </si>
-  <si>
-    <t>BwRegSrv</t>
-  </si>
-  <si>
-    <t>120.79.66.185</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>Indy/9.0.50</t>
-  </si>
-  <si>
-    <t>120.79.66.49:8086</t>
-  </si>
-  <si>
-    <t>8086</t>
-  </si>
-  <si>
-    <t>nginx/1.11.3</t>
-  </si>
-  <si>
-    <t>120.79.66.241:8888</t>
-  </si>
-  <si>
-    <t>入口校验失败</t>
-  </si>
-  <si>
-    <t>Werkzeug/0.14.1 Python/3.6.6</t>
-  </si>
-  <si>
-    <t>120.79.66.170:888</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>120.79.66.138:8081</t>
-  </si>
-  <si>
-    <t>120.79.66.138 - /</t>
-  </si>
-  <si>
-    <t>120.79.66.138</t>
-  </si>
-  <si>
-    <t>120.79.66.113:888</t>
+    <t>https://120.79.66.113:443</t>
+  </si>
+  <si>
+    <t>http://wx.hzz100.cn</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:8000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>http://120.79.66.12:500</t>
+  </si>
+  <si>
+    <t>120.79.66.12</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>http://120.79.66.113:888</t>
+  </si>
+  <si>
+    <t>http://120.79.66.18:7000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>http://120.79.66.149:8081</t>
+  </si>
+  <si>
+    <t>403 - 禁止访问: 访问被拒绝。</t>
+  </si>
+  <si>
+    <t>120.79.66.149</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:8009</t>
+  </si>
+  <si>
+    <t>8009</t>
+  </si>
+  <si>
+    <t>http://120.79.66.33:3390</t>
+  </si>
+  <si>
+    <t>120.79.66.33</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>http://120.79.66.167:8088</t>
+  </si>
+  <si>
+    <t>旺铺 for 3000+</t>
+  </si>
+  <si>
+    <t>120.79.66.167</t>
+  </si>
+  <si>
+    <t>8088</t>
+  </si>
+  <si>
+    <t>http://120.79.66.184:3690</t>
+  </si>
+  <si>
+    <t>http://120.79.66.49:8088</t>
+  </si>
+  <si>
+    <t>Apache Tomcat/7.0.81 - Error report</t>
+  </si>
+  <si>
+    <t>http://120.79.66.138:8088</t>
+  </si>
+  <si>
+    <t>({"State":-1,"Message":"给定关键字不在字典中。","JsonData":null})</t>
+  </si>
+  <si>
+    <t>http://download.chungi.net</t>
+  </si>
+  <si>
+    <t>http://120.79.66.170:777</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>http://120.79.66.240:5672</t>
+  </si>
+  <si>
+    <t>5672</t>
+  </si>
+  <si>
+    <t>http://120.79.66.138:8081</t>
+  </si>
+  <si>
+    <t>http://120.79.66.12:3001</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>http://120.79.66.253:8081</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>http://120.79.66.147:8081</t>
+  </si>
+  <si>
+    <t>http://www.chungi.net</t>
+  </si>
+  <si>
+    <t>http://120.79.66.253:8009</t>
+  </si>
+  <si>
+    <t>http://120.79.66.77:8090</t>
+  </si>
+  <si>
+    <t>404 Page Not Found</t>
+  </si>
+  <si>
+    <t>http://120.79.66.83:9999</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>http://120.79.66.138:8082</t>
+  </si>
+  <si>
+    <t>8082</t>
+  </si>
+  <si>
+    <t>http://120.79.66.145:888</t>
+  </si>
+  <si>
+    <t>120.79.66.145</t>
+  </si>
+  <si>
+    <t>http://120.79.66.16:21</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>http://120.79.66.220:888</t>
+  </si>
+  <si>
+    <t>http://120.79.66.43:8081</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2021-05-10T15:52:35.734+00:00","status":404,"error":"Not Found","message":"","path":"/"}</t>
+  </si>
+  <si>
+    <t>http://120.79.66.167:8082</t>
+  </si>
+  <si>
+    <t>http://120.79.66.236:9300</t>
+  </si>
+  <si>
+    <t>120.79.66.236</t>
+  </si>
+  <si>
+    <t>9300</t>
+  </si>
+  <si>
+    <t>Elasticsearch</t>
+  </si>
+  <si>
+    <t>http://hd-pay-gw.jiwa123.com</t>
+  </si>
+  <si>
+    <t>http://120.79.66.166:389</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>http://120.79.66.241:2022</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>http://120.79.66.12:3000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>{"timestamp":"2021-05-10T15:52:35.745+00:00","status":404,"error":"Not Found","message":"","path":"/"}</t>
+  </si>
+  <si>
+    <t>http://120.79.66.113:21</t>
+  </si>
+  <si>
+    <t>http://120.79.66.123:21</t>
+  </si>
+  <si>
+    <t>120.79.66.123</t>
+  </si>
+  <si>
+    <t>http://120.79.66.201:587</t>
+  </si>
+  <si>
+    <t>120.79.66.201</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>http://www.var123.cn</t>
+  </si>
+  <si>
+    <t>120.79.66.44</t>
+  </si>
+  <si>
+    <t>http://activity.filmkandian.com</t>
+  </si>
+  <si>
+    <t>nginx/1.13.10</t>
+  </si>
+  <si>
+    <t>http://psytest.huiyn.com</t>
+  </si>
+  <si>
+    <t>{"name":"Not Found","message":"Page not found.","code":0,"status":404,"type":"yii\\web\\NotFoundHttpException"}</t>
+  </si>
+  <si>
+    <t>120.79.66.226</t>
+  </si>
+  <si>
+    <t>nginx/1.10.3 (Ubuntu)</t>
+  </si>
+  <si>
+    <t>https://120.79.66.18:443</t>
   </si>
   <si>
     <t>https://www.chungi.net</t>
   </si>
   <si>
-    <t>120.79.66.131</t>
+    <t>https://120.79.66.26:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.83:443</t>
+  </si>
+  <si>
+    <t>http://www.huiyn.com</t>
+  </si>
+  <si>
+    <t>慧苑心理咨询-广州心理咨询,广州心理辅导,抑郁症,强迫症,婚姻情感咨询,催眠,青少年心理健康咨询</t>
+  </si>
+  <si>
+    <t>http://120.79.66.22:8060</t>
+  </si>
+  <si>
+    <t>GMTestLibrary - RemObjects SDK for .NET v0.0.0.0</t>
+  </si>
+  <si>
+    <t>120.79.66.22</t>
+  </si>
+  <si>
+    <t>8060</t>
+  </si>
+  <si>
+    <t>Indy/9.00.10</t>
   </si>
   <si>
     <t>https://apptest3.neweekly.com.cn</t>
   </si>
   <si>
-    <t>download.chungi.net</t>
-  </si>
-  <si>
-    <t>120.79.66.149:8081</t>
-  </si>
-  <si>
-    <t>403 - 禁止访问: 访问被拒绝。</t>
-  </si>
-  <si>
-    <t>120.79.66.149</t>
-  </si>
-  <si>
-    <t>120.79.66.138:8088</t>
-  </si>
-  <si>
-    <t>({"State":-1,"Message":"给定关键字不在字典中。","JsonData":null})</t>
-  </si>
-  <si>
-    <t>8088</t>
-  </si>
-  <si>
-    <t>120.79.66.49:8088</t>
-  </si>
-  <si>
-    <t>Apache Tomcat/7.0.81 - Error report</t>
-  </si>
-  <si>
-    <t>120.79.66.12:3001</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>120.79.66.12</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>120.79.66.170:777</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>120.79.66.138:8086</t>
-  </si>
-  <si>
-    <t>120.79.66.26:443</t>
-  </si>
-  <si>
-    <t>120.79.66.2:443</t>
+    <t>https://120.79.66.56:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.2:443</t>
+  </si>
+  <si>
+    <t>浪大叔-专注于互联网技术分享</t>
   </si>
   <si>
     <t>120.79.66.2</t>
@@ -730,262 +1033,166 @@
     <t>nginx/1.8.0</t>
   </si>
   <si>
+    <t>http://120.79.66.115:8082</t>
+  </si>
+  <si>
+    <t>美多商城-首页</t>
+  </si>
+  <si>
+    <t>http://120.79.66.131:8000</t>
+  </si>
+  <si>
+    <t>http://120.79.66.161:8545</t>
+  </si>
+  <si>
+    <t>8545</t>
+  </si>
+  <si>
+    <t>https://gdy-express.com</t>
+  </si>
+  <si>
+    <t>跟斗运-您身边的全球海淘转运专家</t>
+  </si>
+  <si>
+    <t>120.79.66.10</t>
+  </si>
+  <si>
+    <t>https://120.79.66.29:443</t>
+  </si>
+  <si>
+    <t>120.79.66.29</t>
+  </si>
+  <si>
+    <t>https://120.79.66.14:443</t>
+  </si>
+  <si>
+    <t>呈圣的博客 – 星空不问赶路人，岁月不负有心人。</t>
+  </si>
+  <si>
+    <t>120.79.66.14</t>
+  </si>
+  <si>
+    <t>https://120.79.66.44</t>
+  </si>
+  <si>
+    <t>var123</t>
+  </si>
+  <si>
+    <t>https://120.79.66.29</t>
+  </si>
+  <si>
+    <t>https://120.79.66.44:443</t>
+  </si>
+  <si>
+    <t>https://www.gdy-express.com</t>
+  </si>
+  <si>
+    <t>https://www.dzkandian.com</t>
+  </si>
+  <si>
+    <t>大众看点官网</t>
+  </si>
+  <si>
+    <t>https://120.79.66.33</t>
+  </si>
+  <si>
+    <t>大众看点</t>
+  </si>
+  <si>
+    <t>https://120.79.66.89:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.66:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.33:443</t>
+  </si>
+  <si>
     <t>https://120.79.66.2</t>
   </si>
   <si>
-    <t>浪大叔-专注于互联网技术分享</t>
-  </si>
-  <si>
-    <t>120.79.66.77:8090</t>
-  </si>
-  <si>
-    <t>404 Page Not Found</t>
-  </si>
-  <si>
     <t>https://langdashu.com</t>
   </si>
   <si>
-    <t>langdashu.com</t>
-  </si>
-  <si>
-    <t>120.79.66.131:8000</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>www.langdashu.com</t>
-  </si>
-  <si>
-    <t>120.79.66.253:8081</t>
-  </si>
-  <si>
-    <t>Hello World!</t>
-  </si>
-  <si>
-    <t>www.chungi.net</t>
-  </si>
-  <si>
-    <t>120.79.66.138:8082</t>
-  </si>
-  <si>
-    <t>8082</t>
-  </si>
-  <si>
-    <t>120.79.66.145:888</t>
-  </si>
-  <si>
-    <t>120.79.66.145</t>
-  </si>
-  <si>
-    <t>www.gzayoga.com</t>
+    <t>https://120.79.66.74:443</t>
+  </si>
+  <si>
+    <t>nginx/1.15.11</t>
+  </si>
+  <si>
+    <t>https://120.79.66.10</t>
+  </si>
+  <si>
+    <t>https://120.79.66.74</t>
+  </si>
+  <si>
+    <t>https://120.79.66.10:443</t>
+  </si>
+  <si>
+    <t>http://120.79.66.168:8091</t>
+  </si>
+  <si>
+    <t>8091</t>
+  </si>
+  <si>
+    <t>http://langdashu.com</t>
+  </si>
+  <si>
+    <t>http://www.langdashu.com</t>
+  </si>
+  <si>
+    <t>http://www.dzkandian.com</t>
+  </si>
+  <si>
+    <t>http://dzkandian.com</t>
+  </si>
+  <si>
+    <t>http://www.gdy-express.com</t>
+  </si>
+  <si>
+    <t>http://gdy-express.com</t>
+  </si>
+  <si>
+    <t>http://www.oooovvv.com</t>
+  </si>
+  <si>
+    <t>圆角</t>
+  </si>
+  <si>
+    <t>120.79.66.95</t>
+  </si>
+  <si>
+    <t>nginx/1.16.0</t>
+  </si>
+  <si>
+    <t>http://www.gzayoga.com</t>
   </si>
   <si>
     <t>广州瑜伽教练培训_瑜伽馆哪里好|理疗瑜伽学校_梵天瑜伽培训班</t>
   </si>
   <si>
-    <t>120.79.66.115:8082</t>
-  </si>
-  <si>
-    <t>美多商城-首页</t>
-  </si>
-  <si>
-    <t>120.79.66.43:8081</t>
-  </si>
-  <si>
-    <t>{"timestamp":"2021-05-10T09:25:51.675+00:00","status":404,"error":"Not Found","message":"","path":"/"}</t>
-  </si>
-  <si>
-    <t>{"timestamp":"2021-05-10T09:25:51.721+00:00","status":404,"error":"Not Found","message":"","path":"/"}</t>
-  </si>
-  <si>
-    <t>120.79.66.12:3000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>120.79.66.220:888</t>
-  </si>
-  <si>
-    <t>120.79.66.95:443</t>
-  </si>
-  <si>
-    <t>120.79.66.95</t>
-  </si>
-  <si>
-    <t>nginx/1.16.0</t>
-  </si>
-  <si>
-    <t>120.79.66.56:443</t>
-  </si>
-  <si>
-    <t>120.79.66.29:443</t>
-  </si>
-  <si>
-    <t>120.79.66.29</t>
-  </si>
-  <si>
-    <t>https://120.79.66.29</t>
-  </si>
-  <si>
-    <t>120.79.66.161:8545</t>
-  </si>
-  <si>
-    <t>8545</t>
-  </si>
-  <si>
-    <t>120.79.66.89:443</t>
-  </si>
-  <si>
-    <t>120.79.66.89</t>
-  </si>
-  <si>
-    <t>120.79.66.66:443</t>
-  </si>
-  <si>
-    <t>120.79.66.83:443</t>
-  </si>
-  <si>
-    <t>Bad RequestThis combination of host and port requires TLS.</t>
+    <t>http://120.79.66.2:3000</t>
+  </si>
+  <si>
+    <t>http://oooovvv.com</t>
+  </si>
+  <si>
+    <t>http://120.79.66.165:53</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
   <si>
     <t>https://120.79.66.95</t>
   </si>
   <si>
-    <t>圆角</t>
-  </si>
-  <si>
-    <t>https://gdy-express.com</t>
-  </si>
-  <si>
-    <t>跟斗运-您身边的全球海淘转运专家</t>
-  </si>
-  <si>
-    <t>120.79.66.10</t>
-  </si>
-  <si>
-    <t>https://www.gdy-express.com</t>
-  </si>
-  <si>
-    <t>gdy-express.com</t>
-  </si>
-  <si>
-    <t>www.oooovvv.com</t>
-  </si>
-  <si>
-    <t>oooovvv.com</t>
-  </si>
-  <si>
-    <t>www.gdy-express.com</t>
-  </si>
-  <si>
-    <t>https://120.79.66.10</t>
-  </si>
-  <si>
-    <t>www.var123.cn</t>
-  </si>
-  <si>
-    <t>120.79.66.44</t>
-  </si>
-  <si>
-    <t>120.79.66.18:443</t>
-  </si>
-  <si>
-    <t>https://120.79.66.44</t>
-  </si>
-  <si>
-    <t>var123</t>
-  </si>
-  <si>
-    <t>https://120.79.66.33</t>
-  </si>
-  <si>
-    <t>大众看点</t>
-  </si>
-  <si>
-    <t>120.79.66.33</t>
-  </si>
-  <si>
-    <t>nginx/1.13.10</t>
-  </si>
-  <si>
-    <t>120.79.66.33:443</t>
-  </si>
-  <si>
-    <t>activity.filmkandian.com</t>
-  </si>
-  <si>
-    <t>https://www.dzkandian.com</t>
-  </si>
-  <si>
-    <t>大众看点官网</t>
-  </si>
-  <si>
-    <t>120.79.66.44:443</t>
-  </si>
-  <si>
-    <t>www.dzkandian.com</t>
-  </si>
-  <si>
-    <t>dzkandian.com</t>
-  </si>
-  <si>
-    <t>120.79.66.74:443</t>
-  </si>
-  <si>
-    <t>120.79.66.74</t>
-  </si>
-  <si>
-    <t>nginx/1.15.11</t>
-  </si>
-  <si>
-    <t>120.79.66.49:443</t>
-  </si>
-  <si>
-    <t>120.79.66.22:8060</t>
-  </si>
-  <si>
-    <t>GMTestLibrary - RemObjects SDK for .NET v0.0.0.0</t>
-  </si>
-  <si>
-    <t>120.79.66.22</t>
-  </si>
-  <si>
-    <t>8060</t>
-  </si>
-  <si>
-    <t>Indy/9.00.10</t>
-  </si>
-  <si>
-    <t>https://120.79.66.74</t>
-  </si>
-  <si>
-    <t>120.79.66.14:443</t>
-  </si>
-  <si>
-    <t>呈圣的博客 – 星空不问赶路人，岁月不负有心人。</t>
-  </si>
-  <si>
-    <t>120.79.66.14</t>
-  </si>
-  <si>
-    <t>psytest.huiyn.com</t>
-  </si>
-  <si>
-    <t>{"name":"Not Found","message":"Page not found.","code":0,"status":404,"type":"yii\\web\\NotFoundHttpException"}</t>
-  </si>
-  <si>
-    <t>120.79.66.226</t>
-  </si>
-  <si>
-    <t>nginx/1.10.3 (Ubuntu)</t>
-  </si>
-  <si>
-    <t>www.huiyn.com</t>
-  </si>
-  <si>
-    <t>慧苑心理咨询-广州心理咨询,广州心理辅导,抑郁症,强迫症,婚姻情感咨询,催眠,青少年心理健康咨询</t>
+    <t>https://120.79.66.95:443</t>
+  </si>
+  <si>
+    <t>https://120.79.66.49:443</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,7 +1536,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="8.7109375" customWidth="1" min="1" max="1"/>
+    <col width="11.7109375" customWidth="1" min="1" max="1"/>
     <col width="30.7109375" customWidth="1" min="2" max="2"/>
     <col width="37.7109375" customWidth="1" min="3" max="3"/>
     <col width="20.7109375" customWidth="1" min="4" max="4"/>
@@ -1425,10 +1632,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s">
@@ -1452,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s"/>
       <c r="H5" t="s">
@@ -1539,16 +1746,16 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
@@ -1560,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s"/>
       <c r="H10" t="s">
@@ -1584,19 +1791,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s">
@@ -1608,17 +1815,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
@@ -1630,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
@@ -1654,19 +1863,17 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" t="s"/>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s"/>
       <c r="H14" t="s">
@@ -1678,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s"/>
       <c r="H15" t="s">
@@ -1702,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s"/>
       <c r="H16" t="s">
@@ -1726,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="s"/>
       <c r="H17" t="s">
@@ -1750,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s"/>
       <c r="H18" t="s">
@@ -1774,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s"/>
       <c r="H19" t="s">
@@ -1798,19 +2005,17 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C20" t="s"/>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s"/>
       <c r="H20" t="s">
@@ -1822,19 +2027,17 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s"/>
       <c r="H21" t="s">
@@ -1846,17 +2049,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
@@ -1868,19 +2073,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s"/>
       <c r="H23" t="s">
@@ -1892,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
       </c>
       <c r="G24" t="s"/>
       <c r="H24" t="s">
@@ -1938,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s"/>
       <c r="H26" t="s">
@@ -1962,13 +2167,11 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1986,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s"/>
       <c r="H28" t="s">
@@ -2010,21 +2213,21 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
         <v>13</v>
       </c>
@@ -2034,19 +2237,23 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
@@ -2056,21 +2263,21 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s"/>
       <c r="H31" t="s">
         <v>13</v>
       </c>
@@ -2080,20 +2287,21 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
       <c r="E32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
         <v>13</v>
       </c>
@@ -2103,17 +2311,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s"/>
       <c r="H33" t="s">
@@ -2125,21 +2335,21 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" t="s">
-        <v>111</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
         <v>13</v>
       </c>
@@ -2149,21 +2359,21 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
         <v>13</v>
       </c>
@@ -2173,22 +2383,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
         <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>111</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2199,23 +2409,21 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>111</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>13</v>
       </c>
@@ -2225,23 +2433,21 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>111</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>13</v>
       </c>
@@ -2251,23 +2457,21 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>111</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>13</v>
       </c>
@@ -2277,21 +2481,18 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C40" t="s"/>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
@@ -2301,22 +2502,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2327,19 +2528,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s"/>
       <c r="H42" t="s">
@@ -2351,19 +2552,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
@@ -2375,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s"/>
       <c r="H44" t="s">
@@ -2399,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s"/>
       <c r="H45" t="s">
@@ -2423,23 +2624,21 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>13</v>
       </c>
@@ -2449,19 +2648,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s"/>
       <c r="H47" t="s">
@@ -2476,16 +2675,16 @@
         <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s"/>
       <c r="H48" t="s">
@@ -2497,18 +2696,21 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="G49" t="s">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
         <v>13</v>
       </c>
@@ -2518,23 +2720,21 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>111</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
         <v>13</v>
       </c>
@@ -2544,22 +2744,22 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2570,19 +2770,16 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
         <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G52" t="s"/>
       <c r="H52" t="s">
@@ -2603,10 +2800,10 @@
         <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s"/>
       <c r="H53" t="s">
@@ -2618,19 +2815,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s"/>
       <c r="H54" t="s">
@@ -2642,16 +2839,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2666,19 +2863,16 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s"/>
       <c r="H56" t="s">
@@ -2690,19 +2884,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s"/>
       <c r="H57" t="s">
@@ -2714,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s"/>
       <c r="H58" t="s">
@@ -2738,19 +2932,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G59" t="s"/>
       <c r="H59" t="s">
@@ -2762,21 +2953,20 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
-      </c>
-      <c r="F60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G60" t="s">
+        <v>178</v>
+      </c>
       <c r="H60" t="s">
         <v>13</v>
       </c>
@@ -2786,21 +2976,23 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>181</v>
+      </c>
       <c r="H61" t="s">
         <v>13</v>
       </c>
@@ -2810,19 +3002,16 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s"/>
       <c r="H62" t="s">
@@ -2834,18 +3023,23 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" t="s">
         <v>180</v>
       </c>
-      <c r="E63" t="s">
-        <v>173</v>
-      </c>
-      <c r="G63" t="s"/>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>181</v>
+      </c>
       <c r="H63" t="s">
         <v>13</v>
       </c>
@@ -2855,16 +3049,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
       </c>
       <c r="G64" t="s"/>
       <c r="H64" t="s">
@@ -2876,16 +3073,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
         <v>185</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
         <v>186</v>
       </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>173</v>
+      <c r="F65" t="s">
+        <v>56</v>
       </c>
       <c r="G65" t="s"/>
       <c r="H65" t="s">
@@ -2897,16 +3097,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
         <v>185</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="D66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" t="s">
-        <v>173</v>
+      <c r="F66" t="s">
+        <v>56</v>
       </c>
       <c r="G66" t="s"/>
       <c r="H66" t="s">
@@ -2918,16 +3121,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>189</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
       </c>
       <c r="G67" t="s"/>
       <c r="H67" t="s">
@@ -2939,16 +3145,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="F68" t="s">
+        <v>191</v>
       </c>
       <c r="G68" t="s"/>
       <c r="H68" t="s">
@@ -2960,16 +3169,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>174</v>
       </c>
       <c r="G69" t="s"/>
       <c r="H69" t="s">
@@ -2981,16 +3193,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
         <v>189</v>
       </c>
-      <c r="C70" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" t="s">
-        <v>173</v>
+      <c r="F70" t="s">
+        <v>191</v>
       </c>
       <c r="G70" t="s"/>
       <c r="H70" t="s">
@@ -3002,16 +3217,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>195</v>
+      </c>
+      <c r="F71" t="s">
+        <v>132</v>
       </c>
       <c r="G71" t="s"/>
       <c r="H71" t="s">
@@ -3023,16 +3241,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>128</v>
+      </c>
+      <c r="F72" t="s">
+        <v>198</v>
       </c>
       <c r="G72" t="s"/>
       <c r="H72" t="s">
@@ -3044,19 +3265,16 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
-      </c>
-      <c r="F73" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="G73" t="s"/>
       <c r="H73" t="s">
@@ -3068,19 +3286,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s"/>
       <c r="H74" t="s">
@@ -3092,19 +3310,16 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s"/>
       <c r="H75" t="s">
@@ -3116,19 +3331,16 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="E76" t="s">
-        <v>193</v>
-      </c>
-      <c r="F76" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="G76" t="s"/>
       <c r="H76" t="s">
@@ -3140,19 +3352,16 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F77" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="G77" t="s"/>
       <c r="H77" t="s">
@@ -3164,21 +3373,21 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C78" t="s"/>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F78" t="s">
-        <v>205</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G78" t="s">
+        <v>178</v>
+      </c>
       <c r="H78" t="s">
         <v>13</v>
       </c>
@@ -3188,21 +3397,21 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C79" t="s"/>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>205</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G79" t="s">
+        <v>178</v>
+      </c>
       <c r="H79" t="s">
         <v>13</v>
       </c>
@@ -3212,21 +3421,23 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>178</v>
+      </c>
       <c r="H80" t="s">
         <v>13</v>
       </c>
@@ -3236,21 +3447,23 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>178</v>
+      </c>
       <c r="H81" t="s">
         <v>13</v>
       </c>
@@ -3260,21 +3473,23 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="F82" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
       <c r="H82" t="s">
         <v>13</v>
       </c>
@@ -3284,21 +3499,23 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
       <c r="H83" t="s">
         <v>13</v>
       </c>
@@ -3308,19 +3525,16 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="G84" t="s"/>
       <c r="H84" t="s">
@@ -3332,19 +3546,16 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="G85" t="s"/>
       <c r="H85" t="s">
@@ -3356,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="G86" t="s"/>
       <c r="H86" t="s">
@@ -3380,22 +3591,22 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3406,23 +3617,21 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>111</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
         <v>13</v>
       </c>
@@ -3432,21 +3641,23 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>178</v>
+      </c>
       <c r="H89" t="s">
         <v>13</v>
       </c>
@@ -3456,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s"/>
       <c r="H90" t="s">
@@ -3480,19 +3691,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s"/>
       <c r="H91" t="s">
@@ -3504,19 +3715,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="G92" t="s"/>
       <c r="H92" t="s">
@@ -3528,19 +3739,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="G93" t="s"/>
       <c r="H93" t="s">
@@ -3552,16 +3763,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
       </c>
       <c r="G94" t="s"/>
       <c r="H94" t="s">
@@ -3573,21 +3787,23 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>57</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>178</v>
+      </c>
       <c r="H95" t="s">
         <v>13</v>
       </c>
@@ -3597,21 +3813,23 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>178</v>
+      </c>
       <c r="H96" t="s">
         <v>13</v>
       </c>
@@ -3621,22 +3839,22 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3647,23 +3865,21 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
-      </c>
-      <c r="G98" t="s">
-        <v>111</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
         <v>13</v>
       </c>
@@ -3673,23 +3889,21 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
-      </c>
-      <c r="G99" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
         <v>13</v>
       </c>
@@ -3699,19 +3913,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s"/>
       <c r="H100" t="s">
@@ -3723,23 +3937,21 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="F101" t="s">
-        <v>237</v>
-      </c>
-      <c r="G101" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
         <v>13</v>
       </c>
@@ -3749,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s"/>
       <c r="H102" t="s">
@@ -3773,16 +3985,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
+        <v>186</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
       </c>
       <c r="G103" t="s"/>
       <c r="H103" t="s">
@@ -3794,16 +4009,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
       </c>
       <c r="G104" t="s"/>
       <c r="H104" t="s">
@@ -3815,19 +4033,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="G105" t="s"/>
       <c r="H105" t="s">
@@ -3839,19 +4057,19 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s"/>
       <c r="H106" t="s">
@@ -3863,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s"/>
       <c r="H107" t="s">
@@ -3887,19 +4105,19 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G108" t="s"/>
       <c r="H108" t="s">
@@ -3911,21 +4129,23 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>100</v>
+      </c>
       <c r="H109" t="s">
         <v>13</v>
       </c>
@@ -3935,19 +4155,19 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="D110" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="E110" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G110" t="s"/>
       <c r="H110" t="s">
@@ -3959,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="E111" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G111" t="s"/>
       <c r="H111" t="s">
@@ -3983,19 +4203,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s"/>
       <c r="H112" t="s">
@@ -4007,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s"/>
       <c r="H113" t="s">
@@ -4031,19 +4251,19 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C114" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s"/>
       <c r="H114" t="s">
@@ -4055,19 +4275,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="E115" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G115" t="s"/>
       <c r="H115" t="s">
@@ -4079,16 +4299,19 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C116" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D116" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>169</v>
+        <v>261</v>
+      </c>
+      <c r="F116" t="s">
+        <v>93</v>
       </c>
       <c r="G116" t="s"/>
       <c r="H116" t="s">
@@ -4100,16 +4323,16 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="E117" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="G117" t="s"/>
       <c r="H117" t="s">
@@ -4121,16 +4344,19 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>262</v>
+        <v>195</v>
+      </c>
+      <c r="F118" t="s">
+        <v>93</v>
       </c>
       <c r="G118" t="s"/>
       <c r="H118" t="s">
@@ -4142,16 +4368,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="E119" t="s">
-        <v>262</v>
+        <v>195</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
       </c>
       <c r="G119" t="s"/>
       <c r="H119" t="s">
@@ -4163,19 +4392,19 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G120" t="s"/>
       <c r="H120" t="s">
@@ -4187,19 +4416,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G121" t="s"/>
       <c r="H121" t="s">
@@ -4211,23 +4440,21 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="E122" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
-      </c>
-      <c r="G122" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
         <v>13</v>
       </c>
@@ -4237,23 +4464,21 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="D123" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>111</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
         <v>13</v>
       </c>
@@ -4263,23 +4488,21 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
         <v>13</v>
       </c>
@@ -4289,21 +4512,21 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" t="s"/>
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
       <c r="D125" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="E125" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
         <v>13</v>
       </c>
@@ -4313,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E126" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G126" t="s"/>
       <c r="H126" t="s">
@@ -4337,19 +4560,19 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
         <v>73</v>
       </c>
       <c r="E127" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s"/>
       <c r="H127" t="s">
@@ -4361,23 +4584,21 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" t="s">
-        <v>111</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
         <v>13</v>
       </c>
@@ -4387,23 +4608,21 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="E129" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>111</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
         <v>13</v>
       </c>
@@ -4413,20 +4632,21 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C130" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="E130" t="s">
-        <v>110</v>
-      </c>
-      <c r="G130" t="s">
-        <v>111</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
         <v>13</v>
       </c>
@@ -4436,22 +4656,22 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C131" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="E131" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="F131" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="G131" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -4462,23 +4682,21 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="E132" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
-      </c>
-      <c r="G132" t="s">
-        <v>111</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
         <v>13</v>
       </c>
@@ -4488,23 +4706,21 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="E133" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
-      </c>
-      <c r="G133" t="s">
-        <v>111</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
         <v>13</v>
       </c>
@@ -4514,19 +4730,16 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="G134" t="s"/>
       <c r="H134" t="s">
@@ -4538,19 +4751,19 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C135" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="G135" t="s"/>
       <c r="H135" t="s">
@@ -4562,21 +4775,23 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>299</v>
+      </c>
       <c r="H136" t="s">
         <v>13</v>
       </c>
@@ -4586,19 +4801,19 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G137" t="s"/>
       <c r="H137" t="s">
@@ -4610,21 +4825,21 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
-      </c>
-      <c r="C138" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
       <c r="D138" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="E138" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
-      </c>
-      <c r="G138" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
         <v>13</v>
       </c>
@@ -4634,19 +4849,19 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>290</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G139" t="s"/>
       <c r="H139" t="s">
@@ -4658,23 +4873,18 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C140" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="D140" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
-      </c>
-      <c r="F140" t="s">
-        <v>196</v>
-      </c>
-      <c r="G140" t="s">
-        <v>111</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
         <v>13</v>
       </c>
@@ -4684,23 +4894,21 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="E141" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="F141" t="s">
-        <v>196</v>
-      </c>
-      <c r="G141" t="s">
-        <v>111</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
         <v>13</v>
       </c>
@@ -4710,23 +4918,18 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D142" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="E142" t="s">
-        <v>110</v>
-      </c>
-      <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>111</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
         <v>13</v>
       </c>
@@ -4736,22 +4939,22 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="E143" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="F143" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -4762,23 +4965,18 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c r="D144" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
-      </c>
-      <c r="F144" t="s">
-        <v>297</v>
-      </c>
-      <c r="G144" t="s">
-        <v>111</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
         <v>13</v>
       </c>
@@ -4788,21 +4986,23 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="F145" t="s">
-        <v>297</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>291</v>
+      </c>
       <c r="H145" t="s">
         <v>13</v>
       </c>
@@ -4812,23 +5012,21 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="D146" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="E146" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F146" t="s">
-        <v>297</v>
-      </c>
-      <c r="G146" t="s">
-        <v>111</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
         <v>13</v>
       </c>
@@ -4838,23 +5036,21 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="E147" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>111</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
         <v>13</v>
       </c>
@@ -4864,19 +5060,19 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s"/>
       <c r="H148" t="s">
@@ -4888,19 +5084,19 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="D149" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="G149" t="s"/>
       <c r="H149" t="s">
@@ -4912,23 +5108,21 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E150" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>307</v>
-      </c>
-      <c r="G150" t="s">
-        <v>111</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
         <v>13</v>
       </c>
@@ -4938,23 +5132,21 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D151" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F151" t="s">
-        <v>205</v>
-      </c>
-      <c r="G151" t="s">
-        <v>111</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
         <v>13</v>
       </c>
@@ -4964,21 +5156,23 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D152" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="E152" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="F152" t="s">
-        <v>313</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>178</v>
+      </c>
       <c r="H152" t="s">
         <v>13</v>
       </c>
@@ -4988,21 +5182,23 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C153" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="E153" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="F153" t="s">
-        <v>313</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>178</v>
+      </c>
       <c r="H153" t="s">
         <v>13</v>
       </c>
@@ -5012,20 +5208,22 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
-      </c>
-      <c r="C154" t="s"/>
+        <v>322</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
       <c r="D154" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="E154" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="F154" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5036,22 +5234,22 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="D155" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="E155" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5062,21 +5260,20 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>321</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G156" t="s">
+        <v>178</v>
+      </c>
       <c r="H156" t="s">
         <v>13</v>
       </c>
@@ -5086,10 +5283,10 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C157" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D157" t="s">
         <v>320</v>
@@ -5102,6 +5299,1094 @@
       </c>
       <c r="G157" t="s"/>
       <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" t="s">
+        <v>330</v>
+      </c>
+      <c r="E158" t="s">
+        <v>331</v>
+      </c>
+      <c r="F158" t="s">
+        <v>332</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" t="s">
+        <v>218</v>
+      </c>
+      <c r="E159" t="s">
+        <v>177</v>
+      </c>
+      <c r="F159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
+        <v>178</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" t="s">
+        <v>213</v>
+      </c>
+      <c r="E160" t="s">
+        <v>177</v>
+      </c>
+      <c r="F160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>178</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" t="s">
+        <v>337</v>
+      </c>
+      <c r="E161" t="s">
+        <v>177</v>
+      </c>
+      <c r="F161" t="s">
+        <v>338</v>
+      </c>
+      <c r="G161" t="s">
+        <v>178</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" t="s">
+        <v>329</v>
+      </c>
+      <c r="D162" t="s">
+        <v>330</v>
+      </c>
+      <c r="E162" t="s">
+        <v>331</v>
+      </c>
+      <c r="F162" t="s">
+        <v>332</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" t="s">
+        <v>340</v>
+      </c>
+      <c r="D163" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
+        <v>132</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" t="s">
+        <v>243</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>341</v>
+      </c>
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+      <c r="D165" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" t="s">
+        <v>243</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" t="s">
+        <v>49</v>
+      </c>
+      <c r="E166" t="s">
+        <v>343</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167" t="s">
+        <v>343</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C168" t="s">
+        <v>345</v>
+      </c>
+      <c r="D168" t="s">
+        <v>346</v>
+      </c>
+      <c r="E168" t="s">
+        <v>177</v>
+      </c>
+      <c r="F168" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>178</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" t="s"/>
+      <c r="D169" t="s">
+        <v>348</v>
+      </c>
+      <c r="E169" t="s">
+        <v>177</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>178</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" t="s">
+        <v>351</v>
+      </c>
+      <c r="E170" t="s">
+        <v>177</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>178</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>352</v>
+      </c>
+      <c r="C171" t="s">
+        <v>353</v>
+      </c>
+      <c r="D171" t="s">
+        <v>315</v>
+      </c>
+      <c r="E171" t="s">
+        <v>177</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>178</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" t="s"/>
+      <c r="D172" t="s">
+        <v>348</v>
+      </c>
+      <c r="E172" t="s">
+        <v>177</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>178</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" t="s">
+        <v>315</v>
+      </c>
+      <c r="E173" t="s">
+        <v>177</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>178</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s">
+        <v>345</v>
+      </c>
+      <c r="D174" t="s">
+        <v>346</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" t="s">
+        <v>178</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" t="s">
+        <v>256</v>
+      </c>
+      <c r="E175" t="s">
+        <v>177</v>
+      </c>
+      <c r="F175" t="s">
+        <v>317</v>
+      </c>
+      <c r="G175" t="s">
+        <v>178</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>359</v>
+      </c>
+      <c r="C176" t="s">
+        <v>360</v>
+      </c>
+      <c r="D176" t="s">
+        <v>256</v>
+      </c>
+      <c r="E176" t="s">
+        <v>177</v>
+      </c>
+      <c r="F176" t="s">
+        <v>317</v>
+      </c>
+      <c r="G176" t="s">
+        <v>178</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E177" t="s">
+        <v>177</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>178</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" t="s">
+        <v>215</v>
+      </c>
+      <c r="D178" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>178</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" t="s">
+        <v>256</v>
+      </c>
+      <c r="E179" t="s">
+        <v>177</v>
+      </c>
+      <c r="F179" t="s">
+        <v>317</v>
+      </c>
+      <c r="G179" t="s">
+        <v>178</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" t="s">
+        <v>336</v>
+      </c>
+      <c r="D180" t="s">
+        <v>337</v>
+      </c>
+      <c r="E180" t="s">
+        <v>177</v>
+      </c>
+      <c r="F180" t="s">
+        <v>338</v>
+      </c>
+      <c r="G180" t="s">
+        <v>178</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>365</v>
+      </c>
+      <c r="C181" t="s">
+        <v>336</v>
+      </c>
+      <c r="D181" t="s">
+        <v>337</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+      <c r="F181" t="s">
+        <v>338</v>
+      </c>
+      <c r="G181" t="s">
+        <v>178</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" t="s"/>
+      <c r="D182" t="s">
+        <v>183</v>
+      </c>
+      <c r="E182" t="s">
+        <v>177</v>
+      </c>
+      <c r="F182" t="s">
+        <v>367</v>
+      </c>
+      <c r="G182" t="s">
+        <v>178</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183" t="s"/>
+      <c r="D183" t="s">
+        <v>346</v>
+      </c>
+      <c r="E183" t="s">
+        <v>177</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>178</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+      <c r="C184" t="s"/>
+      <c r="D184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" t="s">
+        <v>177</v>
+      </c>
+      <c r="F184" t="s">
+        <v>367</v>
+      </c>
+      <c r="G184" t="s">
+        <v>178</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" t="s"/>
+      <c r="D185" t="s">
+        <v>346</v>
+      </c>
+      <c r="E185" t="s">
+        <v>177</v>
+      </c>
+      <c r="F185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
+        <v>178</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" t="s">
+        <v>92</v>
+      </c>
+      <c r="E186" t="s">
+        <v>372</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" t="s">
+        <v>336</v>
+      </c>
+      <c r="D187" t="s">
+        <v>337</v>
+      </c>
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>338</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" t="s">
+        <v>336</v>
+      </c>
+      <c r="D188" t="s">
+        <v>337</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>338</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>375</v>
+      </c>
+      <c r="C189" t="s">
+        <v>358</v>
+      </c>
+      <c r="D189" t="s">
+        <v>256</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s">
+        <v>317</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" t="s">
+        <v>358</v>
+      </c>
+      <c r="D190" t="s">
+        <v>256</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>317</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" t="s">
+        <v>345</v>
+      </c>
+      <c r="D191" t="s">
+        <v>346</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" t="s">
+        <v>345</v>
+      </c>
+      <c r="D192" t="s">
+        <v>346</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" t="s">
+        <v>380</v>
+      </c>
+      <c r="D193" t="s">
+        <v>381</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>382</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" t="s">
+        <v>384</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" t="s">
+        <v>306</v>
+      </c>
+      <c r="F195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" t="s">
+        <v>337</v>
+      </c>
+      <c r="E196" t="s">
+        <v>306</v>
+      </c>
+      <c r="F196" t="s">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>386</v>
+      </c>
+      <c r="C197" t="s">
+        <v>380</v>
+      </c>
+      <c r="D197" t="s">
+        <v>381</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>382</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>387</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198" t="s">
+        <v>389</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" t="s">
+        <v>380</v>
+      </c>
+      <c r="D199" t="s">
+        <v>381</v>
+      </c>
+      <c r="E199" t="s">
+        <v>177</v>
+      </c>
+      <c r="F199" t="s">
+        <v>382</v>
+      </c>
+      <c r="G199" t="s">
+        <v>178</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>391</v>
+      </c>
+      <c r="C200" t="s">
+        <v>380</v>
+      </c>
+      <c r="D200" t="s">
+        <v>381</v>
+      </c>
+      <c r="E200" t="s">
+        <v>177</v>
+      </c>
+      <c r="F200" t="s">
+        <v>382</v>
+      </c>
+      <c r="G200" t="s">
+        <v>178</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" t="s">
+        <v>83</v>
+      </c>
+      <c r="E201" t="s">
+        <v>177</v>
+      </c>
+      <c r="F201" t="s">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>178</v>
+      </c>
+      <c r="H201" t="s">
         <v>13</v>
       </c>
     </row>
